--- a/example_2_folder/example_2_005/main_results.xlsx
+++ b/example_2_folder/example_2_005/main_results.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simva\OneDrive\Documents\1 Master 2\Mémoire\code\memoire_partage_elec\example_2_folder\example_2_005\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5A8EDE-EA02-4C59-9FA0-9000B73FB331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -151,8 +170,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,13 +208,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +260,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -267,6 +294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,9 +329,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,64 +505,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BX35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AG1" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AK1" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AS1" t="s">
         <v>20</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BR1" t="s">
         <v>42</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BV1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -552,26 +583,11 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
@@ -591,17 +607,17 @@
       <c r="AC2" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
       <c r="AE2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="s">
         <v>1</v>
       </c>
+      <c r="AH2" t="s">
+        <v>2</v>
+      </c>
       <c r="AI2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK2" t="s">
         <v>1</v>
@@ -612,252 +628,291 @@
       <c r="AM2" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AW2" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AX2" t="s">
         <v>23</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AY2" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AZ2" t="s">
         <v>25</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BA2" t="s">
         <v>26</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BB2" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BC2" t="s">
         <v>28</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BD2" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BE2" t="s">
         <v>30</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BF2" t="s">
         <v>31</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BG2" t="s">
         <v>32</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BH2" t="s">
         <v>33</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BI2" t="s">
         <v>34</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BJ2" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BK2" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BL2" t="s">
         <v>37</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BM2" t="s">
         <v>38</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BN2" t="s">
         <v>39</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BO2" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BP2" t="s">
         <v>41</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BT2" t="s">
         <v>3</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BV2" t="s">
         <v>1</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>2</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1533.787249505624</v>
       </c>
       <c r="B3">
-        <v>1524.40948589477</v>
+        <v>1524.4094858947699</v>
       </c>
       <c r="C3">
         <v>1531.491707302391</v>
       </c>
       <c r="E3">
-        <v>1126.28506906668</v>
+        <v>1126.2850690666801</v>
       </c>
       <c r="F3">
-        <v>1088.884755277063</v>
+        <v>1088.8847552770631</v>
       </c>
       <c r="G3">
-        <v>1119.873701983692</v>
+        <v>1119.8737019836919</v>
       </c>
       <c r="I3">
+        <f>A3-E3</f>
+        <v>407.50218043894392</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:K3" si="0">B3-F3</f>
+        <v>435.52473061770684</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>411.61800531869903</v>
+      </c>
+      <c r="M3">
+        <f>I3/A3</f>
+        <v>0.26568364065504624</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:O3" si="1">J3/B3</f>
+        <v>0.28570061695861892</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0.26876933342573145</v>
+      </c>
+      <c r="Q3">
         <v>2201.803857509989</v>
       </c>
-      <c r="K3">
-        <v>2514.343980765833</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.5677892191710603</v>
-      </c>
-      <c r="Q3">
-        <v>0.3031282673000443</v>
-      </c>
-      <c r="R3">
-        <v>0.3291169788943198</v>
-      </c>
       <c r="S3">
-        <v>0.309443172203256</v>
+        <v>2514.3439807658328</v>
       </c>
       <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.56778921917106029</v>
+      </c>
+      <c r="Y3">
+        <v>0.30312826730004427</v>
+      </c>
+      <c r="Z3">
+        <v>0.32911697889431979</v>
+      </c>
+      <c r="AA3">
+        <v>0.30944317220325601</v>
+      </c>
+      <c r="AC3">
         <v>23791084.11216411</v>
       </c>
-      <c r="W3">
-        <v>55045096.43774974</v>
-      </c>
-      <c r="Y3">
-        <v>4612058.480998179</v>
-      </c>
-      <c r="Z3">
+      <c r="AE3">
+        <v>55045096.437749743</v>
+      </c>
+      <c r="AG3">
+        <v>4612058.4809981789</v>
+      </c>
+      <c r="AH3">
         <v>4582321.93248358</v>
       </c>
-      <c r="AA3">
-        <v>4605671.097343965</v>
-      </c>
-      <c r="AC3">
+      <c r="AI3">
+        <v>4605671.0973439654</v>
+      </c>
+      <c r="AK3">
         <v>1398045.296031452</v>
       </c>
-      <c r="AD3">
+      <c r="AL3">
         <v>1508119.950740177</v>
       </c>
-      <c r="AE3">
+      <c r="AM3">
         <v>1425193.474486968</v>
       </c>
-      <c r="AG3">
-        <v>5168.508393521503</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AO3">
+        <v>5168.5083935215034</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>16</v>
       </c>
-      <c r="AK3">
-        <v>486589.6638595012</v>
-      </c>
-      <c r="AL3">
+      <c r="AS3">
+        <v>486589.66385950119</v>
+      </c>
+      <c r="AT3">
         <v>407202.6857380282</v>
       </c>
-      <c r="AM3">
-        <v>40545.20618403264</v>
-      </c>
-      <c r="AN3">
-        <v>12340.36946680392</v>
-      </c>
-      <c r="AO3">
-        <v>250782.4331923549</v>
-      </c>
-      <c r="AP3">
-        <v>62717.4145137485</v>
-      </c>
-      <c r="AQ3">
-        <v>533692.7233681025</v>
-      </c>
-      <c r="AR3">
-        <v>388929.851923053</v>
-      </c>
-      <c r="AS3">
-        <v>507233.517295695</v>
-      </c>
-      <c r="AT3">
-        <v>396853.078348444</v>
-      </c>
       <c r="AU3">
+        <v>40545.206184032642</v>
+      </c>
+      <c r="AV3">
+        <v>12340.369466803921</v>
+      </c>
+      <c r="AW3">
+        <v>250782.43319235489</v>
+      </c>
+      <c r="AX3">
+        <v>62717.414513748503</v>
+      </c>
+      <c r="AY3">
+        <v>533692.72336810245</v>
+      </c>
+      <c r="AZ3">
+        <v>388929.85192305298</v>
+      </c>
+      <c r="BA3">
+        <v>507233.51729569503</v>
+      </c>
+      <c r="BB3">
+        <v>396853.07834844402</v>
+      </c>
+      <c r="BC3">
         <v>109132.7173527478</v>
       </c>
-      <c r="AV3">
-        <v>84807.87501705384</v>
-      </c>
-      <c r="AW3">
+      <c r="BD3">
+        <v>84807.875017053841</v>
+      </c>
+      <c r="BE3">
         <v>244497.6734716658</v>
       </c>
-      <c r="AX3">
-        <v>31460.64707852208</v>
-      </c>
-      <c r="AY3">
-        <v>570839.4063155024</v>
-      </c>
-      <c r="AZ3">
-        <v>327765.9138501991</v>
-      </c>
-      <c r="BA3">
-        <v>587521.8113411141</v>
-      </c>
-      <c r="BB3">
-        <v>419004.8789363365</v>
-      </c>
-      <c r="BC3">
-        <v>485641.3980676449</v>
-      </c>
-      <c r="BD3">
-        <v>274825.9999627916</v>
-      </c>
-      <c r="BE3">
-        <v>156990.0025425726</v>
-      </c>
       <c r="BF3">
-        <v>41344.39566150297</v>
+        <v>31460.647078522081</v>
       </c>
       <c r="BG3">
-        <v>345253.8003398366</v>
+        <v>570839.40631550236</v>
       </c>
       <c r="BH3">
-        <v>87081.92471504582</v>
+        <v>327765.91385019908</v>
+      </c>
+      <c r="BI3">
+        <v>587521.81134111411</v>
       </c>
       <c r="BJ3">
+        <v>419004.87893633649</v>
+      </c>
+      <c r="BK3">
+        <v>485641.39806764491</v>
+      </c>
+      <c r="BL3">
+        <v>274825.99996279163</v>
+      </c>
+      <c r="BM3">
+        <v>156990.00254257259</v>
+      </c>
+      <c r="BN3">
+        <v>41344.395661502967</v>
+      </c>
+      <c r="BO3">
+        <v>345253.80033983663</v>
+      </c>
+      <c r="BP3">
+        <v>87081.924715045825</v>
+      </c>
+      <c r="BR3">
         <v>2052750</v>
       </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>960200.3378808316</v>
-      </c>
-      <c r="BO3">
-        <v>930463.7893662399</v>
-      </c>
-      <c r="BP3">
-        <v>953812.9542266164</v>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>960200.33788083156</v>
+      </c>
+      <c r="BW3">
+        <v>930463.78936623991</v>
+      </c>
+      <c r="BX3">
+        <v>953812.95422661642</v>
       </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1749.977796137336</v>
+        <v>1749.9777961373361</v>
       </c>
       <c r="B4">
         <v>1731.483169501196</v>
@@ -869,466 +924,538 @@
         <v>1333.577890672711</v>
       </c>
       <c r="F4">
-        <v>1291.687917954904</v>
+        <v>1291.6879179549039</v>
       </c>
       <c r="G4">
-        <v>1324.804048830781</v>
+        <v>1324.8040488307811</v>
       </c>
       <c r="I4">
-        <v>2503.955409587573</v>
+        <f t="shared" ref="I4:I26" si="2">A4-E4</f>
+        <v>416.39990546462514</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J26" si="3">B4-F4</f>
+        <v>439.79525154629209</v>
       </c>
       <c r="K4">
-        <v>2832.078199234286</v>
+        <f t="shared" ref="K4:K26" si="4">C4-G4</f>
+        <v>420.52504549696596</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f t="shared" ref="M4:M26" si="5">I4/A4</f>
+        <v>0.23794582216056104</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N26" si="6">J4/B4</f>
+        <v>0.2539991489914325</v>
       </c>
       <c r="O4">
+        <f t="shared" ref="O4:O26" si="7">K4/C4</f>
+        <v>0.24094312463114051</v>
+      </c>
+      <c r="Q4">
+        <v>2503.9554095875728</v>
+      </c>
+      <c r="S4">
+        <v>2832.0781992342859</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="W4">
         <v>0.5241671451342117</v>
       </c>
-      <c r="Q4">
+      <c r="Y4">
         <v>0.2645130577328722</v>
       </c>
-      <c r="R4">
-        <v>0.2844193018146766</v>
-      </c>
-      <c r="S4">
-        <v>0.2703115568456826</v>
-      </c>
-      <c r="U4">
-        <v>29786606.27501722</v>
-      </c>
-      <c r="W4">
-        <v>62598885.23968934</v>
-      </c>
-      <c r="Y4">
-        <v>4987542.973144763</v>
-      </c>
       <c r="Z4">
-        <v>4931938.045028033</v>
+        <v>0.28441930181467662</v>
       </c>
       <c r="AA4">
-        <v>4975599.085010867</v>
+        <v>0.27031155684568259</v>
       </c>
       <c r="AC4">
+        <v>29786606.275017221</v>
+      </c>
+      <c r="AE4">
+        <v>62598885.239689343</v>
+      </c>
+      <c r="AG4">
+        <v>4987542.9731447631</v>
+      </c>
+      <c r="AH4">
+        <v>4931938.0450280327</v>
+      </c>
+      <c r="AI4">
+        <v>4975599.0850108666</v>
+      </c>
+      <c r="AK4">
         <v>1319270.242400622</v>
       </c>
-      <c r="AD4">
+      <c r="AL4">
         <v>1402738.375360114</v>
       </c>
-      <c r="AE4">
+      <c r="AM4">
         <v>1344961.934909242</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>17</v>
       </c>
-      <c r="AK4">
-        <v>210326.4000000001</v>
-      </c>
-      <c r="AL4">
+      <c r="AS4">
+        <v>210326.40000000011</v>
+      </c>
+      <c r="AT4">
         <v>236617.2</v>
       </c>
-      <c r="AM4">
+      <c r="AU4">
         <v>376834.8</v>
       </c>
-      <c r="AN4">
+      <c r="AV4">
         <v>1042868.4</v>
       </c>
-      <c r="AO4">
-        <v>885123.6000000002</v>
-      </c>
-      <c r="AP4">
+      <c r="AW4">
+        <v>885123.60000000021</v>
+      </c>
+      <c r="AX4">
         <v>920178</v>
       </c>
-      <c r="AQ4">
-        <v>639742.8</v>
-      </c>
-      <c r="AR4">
+      <c r="AY4">
+        <v>639742.80000000005</v>
+      </c>
+      <c r="AZ4">
         <v>499525.1999999999</v>
       </c>
-      <c r="AS4">
-        <v>823778.3999999999</v>
-      </c>
-      <c r="AT4">
+      <c r="BA4">
+        <v>823778.39999999991</v>
+      </c>
+      <c r="BB4">
         <v>701088</v>
       </c>
-      <c r="AU4">
-        <v>718615.1999999998</v>
-      </c>
-      <c r="AV4">
-        <v>552106.8000000002</v>
-      </c>
-      <c r="AW4">
-        <v>587161.2000000001</v>
-      </c>
-      <c r="AX4">
-        <v>525815.9999999999</v>
-      </c>
-      <c r="AY4">
+      <c r="BC4">
+        <v>718615.19999999984</v>
+      </c>
+      <c r="BD4">
+        <v>552106.80000000016</v>
+      </c>
+      <c r="BE4">
+        <v>587161.20000000007</v>
+      </c>
+      <c r="BF4">
+        <v>525815.99999999988</v>
+      </c>
+      <c r="BG4">
         <v>376834.8</v>
       </c>
-      <c r="AZ4">
+      <c r="BH4">
         <v>806251.2</v>
       </c>
-      <c r="BA4">
+      <c r="BI4">
         <v>648506.4</v>
       </c>
-      <c r="BB4">
-        <v>639742.8</v>
-      </c>
-      <c r="BC4">
-        <v>709851.6000000001</v>
-      </c>
-      <c r="BD4">
-        <v>429416.4000000001</v>
-      </c>
-      <c r="BE4">
+      <c r="BJ4">
+        <v>639742.80000000005</v>
+      </c>
+      <c r="BK4">
+        <v>709851.60000000009</v>
+      </c>
+      <c r="BL4">
+        <v>429416.40000000008</v>
+      </c>
+      <c r="BM4">
         <v>341780.4</v>
       </c>
-      <c r="BF4">
-        <v>297962.4000000001</v>
-      </c>
-      <c r="BG4">
+      <c r="BN4">
+        <v>297962.40000000008</v>
+      </c>
+      <c r="BO4">
         <v>508288.8</v>
       </c>
-      <c r="BH4">
-        <v>552106.8000000002</v>
-      </c>
-      <c r="BJ4">
+      <c r="BP4">
+        <v>552106.80000000016</v>
+      </c>
+      <c r="BR4">
         <v>1495450</v>
       </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
         <v>1795496.566769355</v>
       </c>
-      <c r="BO4">
-        <v>1739891.63865261</v>
-      </c>
-      <c r="BP4">
-        <v>1783552.678635456</v>
+      <c r="BW4">
+        <v>1739891.6386526099</v>
+      </c>
+      <c r="BX4">
+        <v>1783552.6786354559</v>
       </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>916.14272881635</v>
+        <v>916.14272881634997</v>
       </c>
       <c r="B5">
-        <v>911.8541197412999</v>
+        <v>911.85411974129988</v>
       </c>
       <c r="C5">
-        <v>915.0647689764414</v>
+        <v>915.06476897644143</v>
       </c>
       <c r="E5">
-        <v>633.5926742646686</v>
+        <v>633.59267426466863</v>
       </c>
       <c r="F5">
         <v>625.6845757999514</v>
       </c>
       <c r="G5">
-        <v>634.6094548531017</v>
+        <v>634.60945485310174</v>
       </c>
       <c r="I5">
+        <f t="shared" si="2"/>
+        <v>282.55005455168134</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>286.16954394134848</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>280.45531412333969</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0.30841270215257183</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>0.31383259421204018</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>0.30648684511922247</v>
+      </c>
+      <c r="Q5">
         <v>2295.762614109557</v>
       </c>
-      <c r="K5">
-        <v>2610.304922857128</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.5480397787025981</v>
-      </c>
-      <c r="Q5">
-        <v>0.3442500513018452</v>
-      </c>
-      <c r="R5">
-        <v>0.3516708382291849</v>
-      </c>
       <c r="S5">
-        <v>0.3437735688741496</v>
+        <v>2610.3049228571281</v>
       </c>
       <c r="U5">
-        <v>25939834.47798141</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>57394065.35273891</v>
+        <v>0.54803977870259812</v>
       </c>
       <c r="Y5">
-        <v>2618785.024997929</v>
+        <v>0.34425005130184522</v>
       </c>
       <c r="Z5">
-        <v>2605891.128623035</v>
+        <v>0.35167083822918488</v>
       </c>
       <c r="AA5">
+        <v>0.34377356887414962</v>
+      </c>
+      <c r="AC5">
+        <v>25939834.477981411</v>
+      </c>
+      <c r="AE5">
+        <v>57394065.352738909</v>
+      </c>
+      <c r="AG5">
+        <v>2618785.0249979291</v>
+      </c>
+      <c r="AH5">
+        <v>2605891.1286230348</v>
+      </c>
+      <c r="AI5">
         <v>2616015.427749489</v>
       </c>
-      <c r="AC5">
-        <v>901516.879204041</v>
-      </c>
-      <c r="AD5">
-        <v>916415.9175368593</v>
-      </c>
-      <c r="AE5">
-        <v>899316.9598272769</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AK5">
+        <v>901516.87920404098</v>
+      </c>
+      <c r="AL5">
+        <v>916415.91753685928</v>
+      </c>
+      <c r="AM5">
+        <v>899316.95982727688</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>18</v>
       </c>
-      <c r="AK5">
-        <v>445023.0792577644</v>
-      </c>
-      <c r="AL5">
-        <v>877630.5206375475</v>
-      </c>
-      <c r="AM5">
-        <v>527169.9888384324</v>
-      </c>
-      <c r="AN5">
-        <v>906735.9395338278</v>
-      </c>
-      <c r="AO5">
-        <v>548640.8975439708</v>
-      </c>
-      <c r="AP5">
-        <v>728230.5292731</v>
-      </c>
-      <c r="AQ5">
-        <v>409423.5957930427</v>
-      </c>
-      <c r="AR5">
-        <v>688805.4192971018</v>
-      </c>
       <c r="AS5">
-        <v>839835.7704500941</v>
+        <v>445023.07925776439</v>
       </c>
       <c r="AT5">
-        <v>825781.9271534102</v>
+        <v>877630.52063754748</v>
       </c>
       <c r="AU5">
-        <v>322908.9060804519</v>
+        <v>527169.98883843236</v>
       </c>
       <c r="AV5">
-        <v>391014.5525333884</v>
+        <v>906735.93953382783</v>
       </c>
       <c r="AW5">
-        <v>370584.4292988103</v>
+        <v>548640.89754397084</v>
       </c>
       <c r="AX5">
-        <v>625617.7925180885</v>
+        <v>728230.52927309996</v>
       </c>
       <c r="AY5">
-        <v>649259.2491876998</v>
+        <v>409423.59579304268</v>
       </c>
       <c r="AZ5">
-        <v>619537.0936167974</v>
+        <v>688805.41929710179</v>
       </c>
       <c r="BA5">
-        <v>618411.116812367</v>
+        <v>839835.77045009413</v>
       </c>
       <c r="BB5">
-        <v>798365.0549864483</v>
+        <v>825781.92715341016</v>
       </c>
       <c r="BC5">
-        <v>359599.2182139929</v>
+        <v>322908.90608045191</v>
       </c>
       <c r="BD5">
+        <v>391014.55253338843</v>
+      </c>
+      <c r="BE5">
+        <v>370584.42929881031</v>
+      </c>
+      <c r="BF5">
+        <v>625617.79251808848</v>
+      </c>
+      <c r="BG5">
+        <v>649259.24918769975</v>
+      </c>
+      <c r="BH5">
+        <v>619537.09361679736</v>
+      </c>
+      <c r="BI5">
+        <v>618411.11681236699</v>
+      </c>
+      <c r="BJ5">
+        <v>798365.05498644826</v>
+      </c>
+      <c r="BK5">
+        <v>359599.21821399289</v>
+      </c>
+      <c r="BL5">
         <v>406252.3052995911</v>
       </c>
-      <c r="BE5">
-        <v>399572.7189403466</v>
-      </c>
-      <c r="BF5">
-        <v>645771.9536449641</v>
-      </c>
-      <c r="BG5">
+      <c r="BM5">
+        <v>399572.71894034662</v>
+      </c>
+      <c r="BN5">
+        <v>645771.95364496415</v>
+      </c>
+      <c r="BO5">
         <v>821513.8619353309</v>
       </c>
-      <c r="BH5">
-        <v>738739.8520441382</v>
-      </c>
-      <c r="BJ5">
+      <c r="BP5">
+        <v>738739.85204413824</v>
+      </c>
+      <c r="BR5">
         <v>820200</v>
       </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>416347.0299754874</v>
-      </c>
-      <c r="BO5">
-        <v>403453.1336005892</v>
-      </c>
-      <c r="BP5">
-        <v>413577.4327270468</v>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>416347.02997548738</v>
+      </c>
+      <c r="BW5">
+        <v>403453.13360058918</v>
+      </c>
+      <c r="BX5">
+        <v>413577.43272704678</v>
       </c>
     </row>
-    <row r="6" spans="1:68">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2355.947617280409</v>
+        <v>2355.9476172804088</v>
       </c>
       <c r="B6">
         <v>2323.354188310052</v>
       </c>
       <c r="C6">
-        <v>2347.75512249711</v>
+        <v>2347.7551224971098</v>
       </c>
       <c r="E6">
-        <v>1879.484391461751</v>
+        <v>1879.4843914617511</v>
       </c>
       <c r="F6">
-        <v>1824.920006498821</v>
+        <v>1824.9200064988211</v>
       </c>
       <c r="G6">
-        <v>1875.804419100384</v>
-      </c>
-      <c r="Q6">
+        <v>1875.8044191003839</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>476.46322581865775</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>498.43418181123093</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>471.95070339672588</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>0.20223846333589696</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>0.21453215541526155</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>0.2010221163503422</v>
+      </c>
+      <c r="Y6">
         <v>0.2220797149501173</v>
       </c>
-      <c r="R6">
-        <v>0.2376892341414878</v>
-      </c>
-      <c r="S6">
+      <c r="Z6">
+        <v>0.23768923414148779</v>
+      </c>
+      <c r="AA6">
         <v>0.2226732747279026</v>
       </c>
-      <c r="Y6">
-        <v>6779590.136814156</v>
-      </c>
-      <c r="Z6">
-        <v>6681596.524364963</v>
-      </c>
-      <c r="AA6">
+      <c r="AG6">
+        <v>6779590.1368141556</v>
+      </c>
+      <c r="AH6">
+        <v>6681596.5243649632</v>
+      </c>
+      <c r="AI6">
         <v>6758541.197726015</v>
       </c>
-      <c r="AC6">
-        <v>1505609.445062314</v>
-      </c>
-      <c r="AD6">
+      <c r="AK6">
+        <v>1505609.4450623139</v>
+      </c>
+      <c r="AL6">
         <v>1588143.560718735</v>
       </c>
-      <c r="AE6">
-        <v>1504946.500881093</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AM6">
+        <v>1504946.5008810931</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>19</v>
       </c>
-      <c r="AK6">
+      <c r="AS6">
         <v>457169</v>
       </c>
-      <c r="AL6">
+      <c r="AT6">
         <v>175146</v>
       </c>
-      <c r="AM6">
+      <c r="AU6">
         <v>437688</v>
       </c>
-      <c r="AN6">
+      <c r="AV6">
         <v>186558</v>
       </c>
-      <c r="AO6">
+      <c r="AW6">
         <v>21274</v>
       </c>
-      <c r="AP6">
+      <c r="AX6">
         <v>16108</v>
       </c>
-      <c r="AQ6">
+      <c r="AY6">
         <v>68638</v>
       </c>
-      <c r="AR6">
+      <c r="AZ6">
         <v>19708</v>
       </c>
-      <c r="AS6">
+      <c r="BA6">
         <v>511981.25</v>
       </c>
-      <c r="AT6">
+      <c r="BB6">
         <v>424175</v>
       </c>
-      <c r="AU6">
+      <c r="BC6">
         <v>262995</v>
       </c>
-      <c r="AV6">
+      <c r="BD6">
         <v>406265</v>
       </c>
-      <c r="AW6">
+      <c r="BE6">
         <v>210400</v>
       </c>
-      <c r="AX6">
+      <c r="BF6">
         <v>271029</v>
       </c>
-      <c r="AY6">
+      <c r="BG6">
         <v>25531</v>
       </c>
-      <c r="AZ6">
+      <c r="BH6">
         <v>92479</v>
       </c>
-      <c r="BA6">
+      <c r="BI6">
         <v>198185.5</v>
       </c>
-      <c r="BB6">
+      <c r="BJ6">
         <v>266053</v>
       </c>
-      <c r="BC6">
+      <c r="BK6">
         <v>734338.75</v>
       </c>
-      <c r="BD6">
+      <c r="BL6">
         <v>194158</v>
       </c>
-      <c r="BE6">
+      <c r="BM6">
         <v>77113</v>
       </c>
-      <c r="BF6">
+      <c r="BN6">
         <v>199731</v>
       </c>
-      <c r="BG6">
+      <c r="BO6">
         <v>51534</v>
       </c>
-      <c r="BH6">
+      <c r="BP6">
         <v>280595</v>
       </c>
-      <c r="BJ6">
+      <c r="BR6">
         <v>1466850</v>
       </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>3164237.427813119</v>
-      </c>
-      <c r="BO6">
-        <v>3066243.815363946</v>
-      </c>
-      <c r="BP6">
-        <v>3143188.488724977</v>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>3164237.4278131188</v>
+      </c>
+      <c r="BW6">
+        <v>3066243.8153639459</v>
+      </c>
+      <c r="BX6">
+        <v>3143188.4887249768</v>
       </c>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1433.308290700072</v>
+        <v>1433.3082907000719</v>
       </c>
       <c r="B7">
         <v>1416.199321695547</v>
       </c>
       <c r="C7">
-        <v>1429.429879063007</v>
+        <v>1429.4298790630071</v>
       </c>
       <c r="E7">
-        <v>1109.098733558768</v>
+        <v>1109.0987335587679</v>
       </c>
       <c r="F7">
         <v>1084.091130270127</v>
@@ -1336,118 +1463,174 @@
       <c r="G7">
         <v>1111.279567461934</v>
       </c>
-      <c r="Q7">
-        <v>0.2592542376521684</v>
-      </c>
-      <c r="R7">
-        <v>0.2692405765616414</v>
-      </c>
-      <c r="S7">
-        <v>0.2556448892092282</v>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>324.209557141304</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>332.10819142542005</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>318.1503116010731</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0.22619666630334642</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0.23450667313397874</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>0.22257147150836176</v>
       </c>
       <c r="Y7">
+        <v>0.25925423765216837</v>
+      </c>
+      <c r="Z7">
+        <v>0.26924057656164141</v>
+      </c>
+      <c r="AA7">
+        <v>0.25564488920922818</v>
+      </c>
+      <c r="AG7">
         <v>4145238.483880396</v>
       </c>
-      <c r="Z7">
+      <c r="AH7">
         <v>4095046.306012711</v>
       </c>
-      <c r="AA7">
+      <c r="AI7">
         <v>4134457.249591419</v>
       </c>
-      <c r="AC7">
+      <c r="AK7">
         <v>1074670.643024842</v>
       </c>
-      <c r="AD7">
-        <v>1102552.628477482</v>
-      </c>
-      <c r="AE7">
-        <v>1056952.865512089</v>
-      </c>
-      <c r="BJ7">
+      <c r="AL7">
+        <v>1102552.6284774819</v>
+      </c>
+      <c r="AM7">
+        <v>1056952.8655120891</v>
+      </c>
+      <c r="BR7">
         <v>818700</v>
       </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>1620717.553144118</v>
-      </c>
-      <c r="BO7">
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>1620717.5531441181</v>
+      </c>
+      <c r="BW7">
         <v>1570525.375276427</v>
       </c>
-      <c r="BP7">
-        <v>1609936.318855143</v>
+      <c r="BX7">
+        <v>1609936.3188551429</v>
       </c>
     </row>
-    <row r="8" spans="1:68">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2364.199738694519</v>
+        <v>2364.1997386945191</v>
       </c>
       <c r="B8">
-        <v>2326.580151241971</v>
+        <v>2326.5801512419712</v>
       </c>
       <c r="C8">
-        <v>2355.671799593152</v>
+        <v>2355.6717995931522</v>
       </c>
       <c r="E8">
-        <v>1919.224964511157</v>
+        <v>1919.2249645111569</v>
       </c>
       <c r="F8">
-        <v>1867.234159982383</v>
+        <v>1867.2341599823831</v>
       </c>
       <c r="G8">
         <v>1913.068855780813</v>
       </c>
-      <c r="Q8">
-        <v>0.2154767493197005</v>
-      </c>
-      <c r="R8">
-        <v>0.2267449236564021</v>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>444.97477418336211</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>459.34599125958812</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>442.60294381233916</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>0.18821369738796753</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.19743398524842601</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>0.18788820407358151</v>
       </c>
       <c r="S8">
-        <v>0.2157313006336125</v>
+        <f>AVERAGE(S3:S5)</f>
+        <v>2652.2423676190824</v>
+      </c>
+      <c r="W8">
+        <f>AVERAGE(W3:W5)</f>
+        <v>0.5466653810026233</v>
       </c>
       <c r="Y8">
+        <v>0.21547674931970051</v>
+      </c>
+      <c r="Z8">
+        <v>0.22674492365640209</v>
+      </c>
+      <c r="AA8">
+        <v>0.21573130063361251</v>
+      </c>
+      <c r="AG8">
         <v>6838604.303483082</v>
       </c>
-      <c r="Z8">
+      <c r="AH8">
         <v>6728240.609199225</v>
       </c>
-      <c r="AA8">
-        <v>6814898.28203472</v>
-      </c>
-      <c r="AC8">
-        <v>1473560.225198249</v>
-      </c>
-      <c r="AD8">
+      <c r="AI8">
+        <v>6814898.2820347203</v>
+      </c>
+      <c r="AK8">
+        <v>1473560.2251982491</v>
+      </c>
+      <c r="AL8">
         <v>1525594.403274782</v>
       </c>
-      <c r="AE8">
-        <v>1470186.870069122</v>
-      </c>
-      <c r="BJ8">
+      <c r="AM8">
+        <v>1470186.8700691219</v>
+      </c>
+      <c r="BR8">
         <v>1547700</v>
       </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>3563670.359696092</v>
-      </c>
-      <c r="BO8">
-        <v>3453306.665412226</v>
-      </c>
-      <c r="BP8">
-        <v>3539964.338247717</v>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>3563670.3596960921</v>
+      </c>
+      <c r="BW8">
+        <v>3453306.6654122262</v>
+      </c>
+      <c r="BX8">
+        <v>3539964.3382477169</v>
       </c>
     </row>
-    <row r="9" spans="1:68">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1404.936629710309</v>
       </c>
@@ -1455,7 +1638,7 @@
         <v>1394.093325806143</v>
       </c>
       <c r="C9">
-        <v>1402.282344235925</v>
+        <v>1402.2823442359249</v>
       </c>
       <c r="E9">
         <v>1052.612298442305</v>
@@ -1466,191 +1649,263 @@
       <c r="G9">
         <v>1042.657714772474</v>
       </c>
-      <c r="Q9">
-        <v>0.2845105695379025</v>
-      </c>
-      <c r="R9">
-        <v>0.3118696627123573</v>
-      </c>
-      <c r="S9">
-        <v>0.292892722431761</v>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>352.32433126800402</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>381.13206705948198</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>359.6246294634509</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0.25077595944000092</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>0.27339064035694316</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>0.2564566479366201</v>
       </c>
       <c r="Y9">
-        <v>4251705.865762382</v>
+        <v>0.28451056953790249</v>
       </c>
       <c r="Z9">
-        <v>4217322.142095998</v>
+        <v>0.31186966271235728</v>
       </c>
       <c r="AA9">
+        <v>0.29289272243176101</v>
+      </c>
+      <c r="AG9">
+        <v>4251705.8657623818</v>
+      </c>
+      <c r="AH9">
+        <v>4217322.1420959979</v>
+      </c>
+      <c r="AI9">
         <v>4244320.273099876</v>
       </c>
-      <c r="AC9">
+      <c r="AK9">
         <v>1209655.257375696</v>
       </c>
-      <c r="AD9">
+      <c r="AL9">
         <v>1315254.834004835</v>
       </c>
-      <c r="AE9">
-        <v>1243130.519660538</v>
-      </c>
-      <c r="BJ9">
+      <c r="AM9">
+        <v>1243130.5196605381</v>
+      </c>
+      <c r="BR9">
         <v>1489950</v>
       </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>1110258.746601195</v>
-      </c>
-      <c r="BO9">
-        <v>1075875.022934818</v>
-      </c>
-      <c r="BP9">
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>1110258.7466011951</v>
+      </c>
+      <c r="BW9">
+        <v>1075875.0229348179</v>
+      </c>
+      <c r="BX9">
         <v>1102873.153938686</v>
       </c>
     </row>
-    <row r="10" spans="1:68">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1863.641830069933</v>
+        <v>1863.6418300699329</v>
       </c>
       <c r="B10">
-        <v>1838.481976479807</v>
+        <v>1838.4819764798069</v>
       </c>
       <c r="C10">
-        <v>1857.483058305149</v>
+        <v>1857.4830583051489</v>
       </c>
       <c r="E10">
         <v>1472.382588758398</v>
       </c>
       <c r="F10">
-        <v>1438.367456050826</v>
+        <v>1438.3674560508259</v>
       </c>
       <c r="G10">
         <v>1468.275918193639</v>
       </c>
-      <c r="Q10">
-        <v>0.2367718224975101</v>
-      </c>
-      <c r="R10">
-        <v>0.2472992294017216</v>
-      </c>
-      <c r="S10">
-        <v>0.2377546608605881</v>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>391.25924131153488</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>400.114520428981</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>389.20714011150994</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>0.20994336733515631</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>0.21763309379572571</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>0.20953469178159828</v>
       </c>
       <c r="Y10">
-        <v>5676265.719193336</v>
+        <v>0.23677182249751011</v>
       </c>
       <c r="Z10">
-        <v>5596484.73537368</v>
+        <v>0.24729922940172161</v>
       </c>
       <c r="AA10">
+        <v>0.23775466086058811</v>
+      </c>
+      <c r="AG10">
+        <v>5676265.7191933356</v>
+      </c>
+      <c r="AH10">
+        <v>5596484.7353736795</v>
+      </c>
+      <c r="AI10">
         <v>5659128.836218616</v>
       </c>
-      <c r="AC10">
-        <v>1343979.779313546</v>
-      </c>
-      <c r="AD10">
+      <c r="AK10">
+        <v>1343979.7793135459</v>
+      </c>
+      <c r="AL10">
         <v>1384006.362416409</v>
       </c>
-      <c r="AE10">
-        <v>1345484.257221532</v>
-      </c>
-      <c r="BJ10">
+      <c r="AM10">
+        <v>1345484.2572215321</v>
+      </c>
+      <c r="BR10">
         <v>1503150</v>
       </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>2576147.247973216</v>
-      </c>
-      <c r="BO10">
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>2576147.2479732162</v>
+      </c>
+      <c r="BW10">
         <v>2496366.264153515</v>
       </c>
-      <c r="BP10">
+      <c r="BX10">
         <v>2559010.364998484</v>
       </c>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2124.543877869185</v>
+        <v>2124.5438778691851</v>
       </c>
       <c r="B11">
-        <v>2107.694400161857</v>
+        <v>2107.6944001618572</v>
       </c>
       <c r="C11">
-        <v>2120.419367081252</v>
+        <v>2120.4193670812519</v>
       </c>
       <c r="E11">
-        <v>1611.558398719742</v>
+        <v>1611.5583987197419</v>
       </c>
       <c r="F11">
-        <v>1558.430192834457</v>
+        <v>1558.4301928344571</v>
       </c>
       <c r="G11">
-        <v>1608.429077316778</v>
-      </c>
-      <c r="Q11">
-        <v>0.2729230659818978</v>
-      </c>
-      <c r="R11">
-        <v>0.2969904577105021</v>
-      </c>
-      <c r="S11">
-        <v>0.2754317906217618</v>
+        <v>1608.4290773167779</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>512.98547914944311</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>549.26420732740007</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>511.99028976447403</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>0.24145675902158481</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>0.26059954767883814</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>0.24145708991010889</v>
       </c>
       <c r="Y11">
-        <v>6451066.943206617</v>
+        <v>0.27292306598189781</v>
       </c>
       <c r="Z11">
+        <v>0.29699045771050209</v>
+      </c>
+      <c r="AA11">
+        <v>0.27543179062176182</v>
+      </c>
+      <c r="AG11">
+        <v>6451066.9432066167</v>
+      </c>
+      <c r="AH11">
         <v>6397637.860103149</v>
       </c>
-      <c r="AA11">
-        <v>6439590.424608395</v>
-      </c>
-      <c r="AC11">
-        <v>1760644.968994419</v>
-      </c>
-      <c r="AD11">
+      <c r="AI11">
+        <v>6439590.4246083954</v>
+      </c>
+      <c r="AK11">
+        <v>1760644.9689944191</v>
+      </c>
+      <c r="AL11">
         <v>1900037.396338071</v>
       </c>
-      <c r="AE11">
+      <c r="AM11">
         <v>1773667.921520642</v>
       </c>
-      <c r="BJ11">
+      <c r="BR11">
         <v>2043000</v>
       </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>1725238.005460779</v>
-      </c>
-      <c r="BO11">
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>1725238.0054607789</v>
+      </c>
+      <c r="BW11">
         <v>1671808.922357315</v>
       </c>
-      <c r="BP11">
-        <v>1713761.486862558</v>
+      <c r="BX11">
+        <v>1713761.4868625579</v>
       </c>
     </row>
-    <row r="12" spans="1:68">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2105.11789423551</v>
       </c>
       <c r="B12">
-        <v>2082.70991181838</v>
+        <v>2082.7099118183801</v>
       </c>
       <c r="C12">
-        <v>2099.485554071994</v>
+        <v>2099.4855540719941</v>
       </c>
       <c r="E12">
         <v>1643.88911711126</v>
@@ -1659,60 +1914,84 @@
         <v>1591.087441528716</v>
       </c>
       <c r="G12">
-        <v>1633.619567460269</v>
-      </c>
-      <c r="Q12">
+        <v>1633.6195674602691</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>461.22877712424997</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>491.62247028966408</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>465.86598661172502</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>0.21909878700249652</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>0.23604942171732238</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>0.2218953046417341</v>
+      </c>
+      <c r="Y12">
         <v>0.2425356755307117</v>
       </c>
-      <c r="R12">
+      <c r="Z12">
         <v>0.2637445313623436</v>
       </c>
-      <c r="S12">
+      <c r="AA12">
         <v>0.2470249722102982</v>
       </c>
-      <c r="Y12">
-        <v>6016011.237123651</v>
-      </c>
-      <c r="Z12">
-        <v>5948640.628564832</v>
-      </c>
-      <c r="AA12">
-        <v>6001540.091500554</v>
-      </c>
-      <c r="AC12">
+      <c r="AG12">
+        <v>6016011.2371236514</v>
+      </c>
+      <c r="AH12">
+        <v>5948640.6285648318</v>
+      </c>
+      <c r="AI12">
+        <v>6001540.0915005542</v>
+      </c>
+      <c r="AK12">
         <v>1459097.349396138</v>
       </c>
-      <c r="AD12">
+      <c r="AL12">
         <v>1568921.434823829</v>
       </c>
-      <c r="AE12">
-        <v>1482530.274321915</v>
-      </c>
-      <c r="BJ12">
+      <c r="AM12">
+        <v>1482530.2743219151</v>
+      </c>
+      <c r="BR12">
         <v>1492700</v>
       </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>2175413.231622005</v>
-      </c>
-      <c r="BO12">
-        <v>2108042.623063179</v>
-      </c>
-      <c r="BP12">
-        <v>2160942.085998906</v>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>2175413.2316220049</v>
+      </c>
+      <c r="BW12">
+        <v>2108042.6230631792</v>
+      </c>
+      <c r="BX12">
+        <v>2160942.0859989058</v>
       </c>
     </row>
-    <row r="13" spans="1:68">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1420.534575085964</v>
       </c>
       <c r="B13">
-        <v>1408.937461378862</v>
+        <v>1408.9374613788621</v>
       </c>
       <c r="C13">
         <v>1417.619592018895</v>
@@ -1726,55 +2005,79 @@
       <c r="G13">
         <v>1026.077571927711</v>
       </c>
-      <c r="Q13">
-        <v>0.3032138625835423</v>
-      </c>
-      <c r="R13">
-        <v>0.3236486368327953</v>
-      </c>
-      <c r="S13">
-        <v>0.3089115558800057</v>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>387.47755592726094</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>406.02506274235009</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>391.54202009118399</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0.27276883134211122</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>0.28817820085853357</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>0.27619681774683408</v>
       </c>
       <c r="Y13">
-        <v>4039923.583658516</v>
+        <v>0.30321386258354233</v>
       </c>
       <c r="Z13">
-        <v>4005056.338878074</v>
+        <v>0.32364863683279532</v>
       </c>
       <c r="AA13">
-        <v>4032434.131099194</v>
-      </c>
-      <c r="AC13">
+        <v>0.30891155588000568</v>
+      </c>
+      <c r="AG13">
+        <v>4039923.5836585159</v>
+      </c>
+      <c r="AH13">
+        <v>4005056.3388780742</v>
+      </c>
+      <c r="AI13">
+        <v>4032434.1310991938</v>
+      </c>
+      <c r="AK13">
         <v>1224960.834343445</v>
       </c>
-      <c r="AD13">
-        <v>1296231.024516434</v>
-      </c>
-      <c r="AE13">
-        <v>1245665.501421491</v>
-      </c>
-      <c r="BJ13">
+      <c r="AL13">
+        <v>1296231.0245164339</v>
+      </c>
+      <c r="AM13">
+        <v>1245665.5014214909</v>
+      </c>
+      <c r="BR13">
         <v>1500400</v>
       </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
         <v>1125871.760225225</v>
       </c>
-      <c r="BO13">
-        <v>1091004.515444758</v>
-      </c>
-      <c r="BP13">
+      <c r="BW13">
+        <v>1091004.5154447581</v>
+      </c>
+      <c r="BX13">
         <v>1118382.307665891</v>
       </c>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1630.593019245972</v>
+        <v>1630.5930192459721</v>
       </c>
       <c r="B14">
         <v>1605.522525361423</v>
@@ -1783,61 +2086,85 @@
         <v>1624.291445681851</v>
       </c>
       <c r="E14">
-        <v>1296.9974737582</v>
+        <v>1296.9974737581999</v>
       </c>
       <c r="F14">
-        <v>1269.039919695416</v>
+        <v>1269.0399196954161</v>
       </c>
       <c r="G14">
-        <v>1297.597821410241</v>
-      </c>
-      <c r="Q14">
-        <v>0.2251123607608538</v>
-      </c>
-      <c r="R14">
-        <v>0.23282539589552</v>
-      </c>
-      <c r="S14">
-        <v>0.2234381732295224</v>
+        <v>1297.5978214102411</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>333.59554548777214</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>336.48260566600698</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>326.69362427160991</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>0.20458541251577003</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>0.20957825278113776</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>0.20112992969341734</v>
       </c>
       <c r="Y14">
-        <v>4689489.573615341</v>
+        <v>0.22511236076085381</v>
       </c>
       <c r="Z14">
-        <v>4614114.004390441</v>
+        <v>0.23282539589552001</v>
       </c>
       <c r="AA14">
-        <v>4673298.969700504</v>
-      </c>
-      <c r="AC14">
+        <v>0.22343817322952239</v>
+      </c>
+      <c r="AG14">
+        <v>4689489.5736153414</v>
+      </c>
+      <c r="AH14">
+        <v>4614114.0043904409</v>
+      </c>
+      <c r="AI14">
+        <v>4673298.9697005041</v>
+      </c>
+      <c r="AK14">
         <v>1055662.068679959</v>
       </c>
-      <c r="AD14">
-        <v>1074282.919779268</v>
-      </c>
-      <c r="AE14">
+      <c r="AL14">
+        <v>1074282.9197792681</v>
+      </c>
+      <c r="AM14">
         <v>1044193.38474529</v>
       </c>
-      <c r="BJ14">
+      <c r="BR14">
         <v>821400</v>
       </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>2433895.34606498</v>
-      </c>
-      <c r="BO14">
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>2433895.3460649801</v>
+      </c>
+      <c r="BW14">
         <v>2358519.776840094</v>
       </c>
-      <c r="BP14">
+      <c r="BX14">
         <v>2417704.742150146</v>
       </c>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1136.44142448413</v>
       </c>
@@ -1845,134 +2172,182 @@
         <v>1125.453593172693</v>
       </c>
       <c r="C15">
-        <v>1133.950606199687</v>
+        <v>1133.9506061996869</v>
       </c>
       <c r="E15">
-        <v>846.802444032713</v>
+        <v>846.80244403271297</v>
       </c>
       <c r="F15">
-        <v>826.488699062583</v>
+        <v>826.48869906258301</v>
       </c>
       <c r="G15">
-        <v>848.685600115962</v>
-      </c>
-      <c r="Q15">
-        <v>0.2928644363971263</v>
-      </c>
-      <c r="R15">
-        <v>0.305840093140945</v>
-      </c>
-      <c r="S15">
-        <v>0.2896771519530054</v>
+        <v>848.68560011596196</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>289.63898045141707</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>298.96489411010998</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>285.26500608372498</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>0.25486485639406731</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>0.26563946832078389</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>0.25156740031187058</v>
       </c>
       <c r="Y15">
-        <v>3277610.877709135</v>
+        <v>0.29286443639712628</v>
       </c>
       <c r="Z15">
+        <v>0.30584009314094501</v>
+      </c>
+      <c r="AA15">
+        <v>0.28967715195300542</v>
+      </c>
+      <c r="AG15">
+        <v>3277610.8777091349</v>
+      </c>
+      <c r="AH15">
         <v>3245376.136771901</v>
       </c>
-      <c r="AA15">
-        <v>3270686.884588036</v>
-      </c>
-      <c r="AC15">
-        <v>959895.6624293763</v>
-      </c>
-      <c r="AD15">
-        <v>992566.1399477182</v>
-      </c>
-      <c r="AE15">
-        <v>947443.2616575105</v>
-      </c>
-      <c r="BJ15">
+      <c r="AI15">
+        <v>3270686.8845880362</v>
+      </c>
+      <c r="AK15">
+        <v>959895.66242937627</v>
+      </c>
+      <c r="AL15">
+        <v>992566.13994771824</v>
+      </c>
+      <c r="AM15">
+        <v>947443.26165751053</v>
+      </c>
+      <c r="BR15">
         <v>824100</v>
       </c>
-      <c r="BK15">
-        <v>0</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BN15">
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
         <v>1040867.57493864</v>
       </c>
-      <c r="BO15">
+      <c r="BW15">
         <v>1008632.834001409</v>
       </c>
-      <c r="BP15">
+      <c r="BX15">
         <v>1033943.581817543</v>
       </c>
     </row>
-    <row r="16" spans="1:68">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1828.819350384232</v>
+        <v>1828.8193503842319</v>
       </c>
       <c r="B16">
-        <v>1804.243234350976</v>
+        <v>1804.2432343509761</v>
       </c>
       <c r="C16">
         <v>1823.248220154695</v>
       </c>
       <c r="E16">
-        <v>1415.664713036327</v>
+        <v>1415.6647130363269</v>
       </c>
       <c r="F16">
-        <v>1381.840210841401</v>
+        <v>1381.8402108414009</v>
       </c>
       <c r="G16">
-        <v>1411.518482633889</v>
-      </c>
-      <c r="Q16">
-        <v>0.2592600824682429</v>
-      </c>
-      <c r="R16">
-        <v>0.2692329237971279</v>
-      </c>
-      <c r="S16">
-        <v>0.2597814999331016</v>
+        <v>1411.5184826338891</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>413.15463734790501</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>422.40302350957518</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>411.72973752080588</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0.2259133124663745</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>0.23411645141156501</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>0.22582209760000332</v>
       </c>
       <c r="Y16">
-        <v>5278547.248876078</v>
+        <v>0.25926008246824289</v>
       </c>
       <c r="Z16">
-        <v>5206448.87831313</v>
+        <v>0.26923292379712788</v>
       </c>
       <c r="AA16">
-        <v>5263060.584261887</v>
-      </c>
-      <c r="AC16">
-        <v>1368516.595056129</v>
-      </c>
-      <c r="AD16">
-        <v>1401747.454108521</v>
-      </c>
-      <c r="AE16">
-        <v>1367245.772818339</v>
-      </c>
-      <c r="BJ16">
+        <v>0.25978149993310162</v>
+      </c>
+      <c r="AG16">
+        <v>5278547.2488760781</v>
+      </c>
+      <c r="AH16">
+        <v>5206448.8783131298</v>
+      </c>
+      <c r="AI16">
+        <v>5263060.5842618868</v>
+      </c>
+      <c r="AK16">
+        <v>1368516.5950561289</v>
+      </c>
+      <c r="AL16">
+        <v>1401747.4541085211</v>
+      </c>
+      <c r="AM16">
+        <v>1367245.7728183391</v>
+      </c>
+      <c r="BR16">
         <v>1496550</v>
       </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>2328073.809279509</v>
-      </c>
-      <c r="BO16">
-        <v>2255975.438716546</v>
-      </c>
-      <c r="BP16">
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>2328073.8092795089</v>
+      </c>
+      <c r="BW16">
+        <v>2255975.4387165462</v>
+      </c>
+      <c r="BX16">
         <v>2312587.144665319</v>
       </c>
     </row>
-    <row r="17" spans="1:68">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1560.991578216809</v>
+        <v>1560.9915782168091</v>
       </c>
       <c r="B17">
-        <v>1545.463628172805</v>
+        <v>1545.4636281728051</v>
       </c>
       <c r="C17">
         <v>1557.190558471063</v>
@@ -1981,60 +2356,84 @@
         <v>1191.987307216267</v>
       </c>
       <c r="F17">
-        <v>1158.989038016102</v>
+        <v>1158.9890380161021</v>
       </c>
       <c r="G17">
         <v>1188.690718504582</v>
       </c>
-      <c r="Q17">
-        <v>0.2676968073775516</v>
-      </c>
-      <c r="R17">
-        <v>0.2850233717404622</v>
-      </c>
-      <c r="S17">
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>369.00427100054208</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>386.47459015670302</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>368.49983996648098</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0.23639094287880288</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>0.25007032395426232</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>0.23664402404821588</v>
+      </c>
+      <c r="Y17">
+        <v>0.26769680737755158</v>
+      </c>
+      <c r="Z17">
+        <v>0.28502337174046222</v>
+      </c>
+      <c r="AA17">
         <v>0.2698501930470299</v>
       </c>
-      <c r="Y17">
+      <c r="AG17">
         <v>4728189.676222004</v>
       </c>
-      <c r="Z17">
-        <v>4678951.109440378</v>
-      </c>
-      <c r="AA17">
-        <v>4717613.276729525</v>
-      </c>
-      <c r="AC17">
-        <v>1265721.28100013</v>
-      </c>
-      <c r="AD17">
-        <v>1333610.421421473</v>
-      </c>
-      <c r="AE17">
-        <v>1273048.853446694</v>
-      </c>
-      <c r="BJ17">
+      <c r="AH17">
+        <v>4678951.1094403779</v>
+      </c>
+      <c r="AI17">
+        <v>4717613.2767295251</v>
+      </c>
+      <c r="AK17">
+        <v>1265721.2810001301</v>
+      </c>
+      <c r="AL17">
+        <v>1333610.4214214729</v>
+      </c>
+      <c r="AM17">
+        <v>1273048.8534466941</v>
+      </c>
+      <c r="BR17">
         <v>1515800</v>
       </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
         <v>1589925.220718622</v>
       </c>
-      <c r="BO17">
+      <c r="BW17">
         <v>1540686.653937015</v>
       </c>
-      <c r="BP17">
+      <c r="BX17">
         <v>1579348.821226147</v>
       </c>
     </row>
-    <row r="18" spans="1:68">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1965.605651751008</v>
+        <v>1965.6056517510081</v>
       </c>
       <c r="B18">
         <v>1939.530894393956</v>
@@ -2043,126 +2442,174 @@
         <v>1959.222924649313</v>
       </c>
       <c r="E18">
-        <v>1541.979636516951</v>
+        <v>1541.9796365169509</v>
       </c>
       <c r="F18">
-        <v>1506.997729721544</v>
+        <v>1506.9977297215439</v>
       </c>
       <c r="G18">
-        <v>1545.223394083924</v>
-      </c>
-      <c r="Q18">
-        <v>0.2427959044522696</v>
-      </c>
-      <c r="R18">
-        <v>0.2523421848067164</v>
-      </c>
-      <c r="S18">
-        <v>0.2396264597849881</v>
+        <v>1545.2233940839239</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>423.62601523405715</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>432.53316467241211</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>413.99953056538902</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>0.21551933108082033</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>0.22300916470194485</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>0.21130802695129347</v>
       </c>
       <c r="Y18">
-        <v>5996458.537184658</v>
+        <v>0.24279590445226959</v>
       </c>
       <c r="Z18">
-        <v>5913776.426680651</v>
+        <v>0.25234218480671639</v>
       </c>
       <c r="AA18">
-        <v>5978698.494829038</v>
-      </c>
-      <c r="AC18">
-        <v>1455915.574046282</v>
-      </c>
-      <c r="AD18">
-        <v>1492295.263967052</v>
-      </c>
-      <c r="AE18">
+        <v>0.23962645978498809</v>
+      </c>
+      <c r="AG18">
+        <v>5996458.5371846585</v>
+      </c>
+      <c r="AH18">
+        <v>5913776.4266806506</v>
+      </c>
+      <c r="AI18">
+        <v>5978698.4948290382</v>
+      </c>
+      <c r="AK18">
+        <v>1455915.5740462821</v>
+      </c>
+      <c r="AL18">
+        <v>1492295.2639670521</v>
+      </c>
+      <c r="AM18">
         <v>1432654.35443772</v>
       </c>
-      <c r="BJ18">
+      <c r="BR18">
         <v>1480600</v>
       </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>2669825.32971763</v>
-      </c>
-      <c r="BO18">
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>2669825.3297176301</v>
+      </c>
+      <c r="BW18">
         <v>2587143.219213624</v>
       </c>
-      <c r="BP18">
+      <c r="BX18">
         <v>2652065.287362006</v>
       </c>
     </row>
-    <row r="19" spans="1:68">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1591.661092219502</v>
+        <v>1591.6610922195021</v>
       </c>
       <c r="B19">
         <v>1585.104281889963</v>
       </c>
       <c r="C19">
-        <v>1590.056078971713</v>
+        <v>1590.0560789717131</v>
       </c>
       <c r="E19">
-        <v>1153.069622895451</v>
+        <v>1153.0696228954509</v>
       </c>
       <c r="F19">
         <v>1123.661304593094</v>
       </c>
       <c r="G19">
-        <v>1137.94861872112</v>
-      </c>
-      <c r="Q19">
-        <v>0.3150085759182421</v>
-      </c>
-      <c r="R19">
-        <v>0.3349121823849103</v>
-      </c>
-      <c r="S19">
-        <v>0.3274349032631284</v>
+        <v>1137.9486187211201</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>438.5914693240511</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>461.442977296869</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>452.10746025059302</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0.27555581490809355</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>0.29111206282698193</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>0.28433428621144624</v>
       </c>
       <c r="Y19">
-        <v>4793234.413988916</v>
+        <v>0.31500857591824211</v>
       </c>
       <c r="Z19">
-        <v>4772443.0060844</v>
+        <v>0.33491218238491027</v>
       </c>
       <c r="AA19">
-        <v>4788768.438425808</v>
-      </c>
-      <c r="AC19">
-        <v>1509909.946792958</v>
-      </c>
-      <c r="AD19">
-        <v>1598349.302475328</v>
-      </c>
-      <c r="AE19">
-        <v>1568009.930385477</v>
-      </c>
-      <c r="BJ19">
+        <v>0.32743490326312841</v>
+      </c>
+      <c r="AG19">
+        <v>4793234.4139889162</v>
+      </c>
+      <c r="AH19">
+        <v>4772443.0060844002</v>
+      </c>
+      <c r="AI19">
+        <v>4788768.4384258082</v>
+      </c>
+      <c r="AK19">
+        <v>1509909.9467929581</v>
+      </c>
+      <c r="AL19">
+        <v>1598349.3024753281</v>
+      </c>
+      <c r="AM19">
+        <v>1568009.9303854769</v>
+      </c>
+      <c r="BR19">
         <v>2069250</v>
       </c>
-      <c r="BK19">
-        <v>0</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
         <v>671359.5858353728</v>
       </c>
-      <c r="BO19">
-        <v>650568.1779308752</v>
-      </c>
-      <c r="BP19">
+      <c r="BW19">
+        <v>650568.17793087522</v>
+      </c>
+      <c r="BX19">
         <v>666893.610272269</v>
       </c>
     </row>
-    <row r="20" spans="1:68">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2392.502408437455</v>
       </c>
@@ -2176,69 +2623,93 @@
         <v>1915.944280734428</v>
       </c>
       <c r="F20">
-        <v>1855.71166824299</v>
+        <v>1855.7116682429901</v>
       </c>
       <c r="G20">
         <v>1905.064644108088</v>
       </c>
-      <c r="Q20">
-        <v>0.2196353168368383</v>
-      </c>
-      <c r="R20">
-        <v>0.2368227542287608</v>
-      </c>
-      <c r="S20">
-        <v>0.2234448211514891</v>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>476.55812770302691</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>503.33065480685491</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>479.02743182842096</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>0.19918814962208015</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>0.21336228260463466</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>0.20092656515384433</v>
       </c>
       <c r="Y20">
-        <v>6860389.957377183</v>
+        <v>0.21963531683683829</v>
       </c>
       <c r="Z20">
-        <v>6759790.703368897</v>
+        <v>0.23682275422876081</v>
       </c>
       <c r="AA20">
-        <v>6838781.328845087</v>
-      </c>
-      <c r="AC20">
+        <v>0.22344482115148909</v>
+      </c>
+      <c r="AG20">
+        <v>6860389.9573771833</v>
+      </c>
+      <c r="AH20">
+        <v>6759790.7033688966</v>
+      </c>
+      <c r="AI20">
+        <v>6838781.3288450874</v>
+      </c>
+      <c r="AK20">
         <v>1506783.921912801</v>
       </c>
-      <c r="AD20">
-        <v>1600872.252381794</v>
-      </c>
-      <c r="AE20">
+      <c r="AL20">
+        <v>1600872.2523817939</v>
+      </c>
+      <c r="AM20">
         <v>1528090.270917933</v>
       </c>
-      <c r="BJ20">
+      <c r="BR20">
         <v>1488850</v>
       </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>3248374.223454453</v>
-      </c>
-      <c r="BO20">
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>3248374.2234544531</v>
+      </c>
+      <c r="BW20">
         <v>3147774.969446159</v>
       </c>
-      <c r="BP20">
+      <c r="BX20">
         <v>3226765.594922354</v>
       </c>
     </row>
-    <row r="21" spans="1:68">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1520.583839010206</v>
       </c>
       <c r="B21">
-        <v>1507.691207978345</v>
+        <v>1507.6912079783449</v>
       </c>
       <c r="C21">
         <v>1517.343222241479</v>
       </c>
       <c r="E21">
-        <v>1147.814066601905</v>
+        <v>1147.8140666019051</v>
       </c>
       <c r="F21">
         <v>1120.600303043555</v>
@@ -2246,259 +2717,355 @@
       <c r="G21">
         <v>1144.498569055989</v>
       </c>
-      <c r="Q21">
-        <v>0.2724098218714348</v>
-      </c>
-      <c r="R21">
-        <v>0.288186209410059</v>
-      </c>
-      <c r="S21">
-        <v>0.2752283483113981</v>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>372.76977240830092</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>387.09090493478993</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>372.84465318548996</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>0.24514910841808502</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>0.25674415482851959</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>0.24572202763374076</v>
       </c>
       <c r="Y21">
-        <v>4352274.225145375</v>
+        <v>0.27240982187143481</v>
       </c>
       <c r="Z21">
-        <v>4313511.949168351</v>
+        <v>0.28818620941005901</v>
       </c>
       <c r="AA21">
-        <v>4343948.123417255</v>
-      </c>
-      <c r="AC21">
-        <v>1185602.246407488</v>
-      </c>
-      <c r="AD21">
-        <v>1243094.657875822</v>
-      </c>
-      <c r="AE21">
+        <v>0.27522834831139809</v>
+      </c>
+      <c r="AG21">
+        <v>4352274.2251453754</v>
+      </c>
+      <c r="AH21">
+        <v>4313511.9491683505</v>
+      </c>
+      <c r="AI21">
+        <v>4343948.1234172545</v>
+      </c>
+      <c r="AK21">
+        <v>1185602.2464074879</v>
+      </c>
+      <c r="AL21">
+        <v>1243094.6578758219</v>
+      </c>
+      <c r="AM21">
         <v>1195577.667158528</v>
       </c>
-      <c r="BJ21">
+      <c r="BR21">
         <v>811200</v>
       </c>
-      <c r="BK21">
-        <v>0</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BN21">
-        <v>1251643.258863726</v>
-      </c>
-      <c r="BO21">
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>1251643.2588637259</v>
+      </c>
+      <c r="BW21">
         <v>1212880.9828867</v>
       </c>
-      <c r="BP21">
+      <c r="BX21">
         <v>1243317.15713561</v>
       </c>
     </row>
-    <row r="22" spans="1:68">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2074.73448980278</v>
       </c>
       <c r="B22">
-        <v>2042.458239211882</v>
+        <v>2042.4582392118821</v>
       </c>
       <c r="C22">
-        <v>2066.621719132618</v>
+        <v>2066.6217191326182</v>
       </c>
       <c r="E22">
-        <v>1649.324948307575</v>
+        <v>1649.3249483075749</v>
       </c>
       <c r="F22">
-        <v>1600.007869432556</v>
+        <v>1600.0078694325559</v>
       </c>
       <c r="G22">
         <v>1640.682656113155</v>
       </c>
-      <c r="Q22">
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>425.40954149520508</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>442.45036977932614</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>425.93906301946322</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0.20504288311881472</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>0.21662639719383114</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>0.20610402913903086</v>
+      </c>
+      <c r="Y22">
         <v>0.226993136423699</v>
       </c>
-      <c r="R22">
-        <v>0.2413714956848665</v>
-      </c>
-      <c r="S22">
-        <v>0.2299901824076664</v>
-      </c>
-      <c r="Y22">
-        <v>5947297.800650639</v>
-      </c>
       <c r="Z22">
-        <v>5850257.799287505</v>
+        <v>0.24137149568486649</v>
       </c>
       <c r="AA22">
-        <v>5926453.696358996</v>
-      </c>
-      <c r="AC22">
+        <v>0.22999018240766639</v>
+      </c>
+      <c r="AG22">
+        <v>5947297.8006506395</v>
+      </c>
+      <c r="AH22">
+        <v>5850257.7992875054</v>
+      </c>
+      <c r="AI22">
+        <v>5926453.6963589964</v>
+      </c>
+      <c r="AK22">
         <v>1349995.781015455</v>
       </c>
-      <c r="AD22">
+      <c r="AL22">
         <v>1412085.47515608</v>
       </c>
-      <c r="AE22">
+      <c r="AM22">
         <v>1363026.166656194</v>
       </c>
-      <c r="BJ22">
+      <c r="BR22">
         <v>1509200</v>
       </c>
-      <c r="BK22">
-        <v>0</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BN22">
-        <v>3133445.095388355</v>
-      </c>
-      <c r="BO22">
-        <v>3036405.094025228</v>
-      </c>
-      <c r="BP22">
-        <v>3112600.99109671</v>
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
+        <v>3133445.0953883552</v>
+      </c>
+      <c r="BW22">
+        <v>3036405.0940252282</v>
+      </c>
+      <c r="BX22">
+        <v>3112600.9910967099</v>
       </c>
     </row>
-    <row r="23" spans="1:68">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>952.6623781399956</v>
+        <v>952.66237813999555</v>
       </c>
       <c r="B23">
         <v>942.5673081226073</v>
       </c>
       <c r="C23">
-        <v>950.3739388411643</v>
+        <v>950.37393884116432</v>
       </c>
       <c r="E23">
-        <v>705.4770418286051</v>
+        <v>705.47704182860514</v>
       </c>
       <c r="F23">
-        <v>688.4069345562887</v>
+        <v>688.40693455628866</v>
       </c>
       <c r="G23">
-        <v>707.0262749684073</v>
-      </c>
-      <c r="Q23">
-        <v>0.2981852282008782</v>
-      </c>
-      <c r="R23">
-        <v>0.3105530900893118</v>
-      </c>
-      <c r="S23">
-        <v>0.2948883589212641</v>
+        <v>707.02627496840728</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>247.18533631139042</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>254.16037356631864</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>243.34766387275704</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>0.25946793111952415</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>0.26964692216256875</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>0.25605464746800854</v>
       </c>
       <c r="Y23">
-        <v>2746553.205957813</v>
+        <v>0.29818522820087823</v>
       </c>
       <c r="Z23">
+        <v>0.31055309008931181</v>
+      </c>
+      <c r="AA23">
+        <v>0.29488835892126408</v>
+      </c>
+      <c r="AG23">
+        <v>2746553.2059578132</v>
+      </c>
+      <c r="AH23">
         <v>2716937.537721728</v>
       </c>
-      <c r="AA23">
-        <v>2740191.787277802</v>
-      </c>
-      <c r="AC23">
-        <v>818981.5944843839</v>
-      </c>
-      <c r="AD23">
-        <v>843753.3479191287</v>
-      </c>
-      <c r="AE23">
-        <v>808050.6592798769</v>
-      </c>
-      <c r="BJ23">
+      <c r="AI23">
+        <v>2740191.7872778019</v>
+      </c>
+      <c r="AK23">
+        <v>818981.59448438394</v>
+      </c>
+      <c r="AL23">
+        <v>843753.34791912872</v>
+      </c>
+      <c r="AM23">
+        <v>808050.65927987685</v>
+      </c>
+      <c r="BR23">
         <v>814800</v>
       </c>
-      <c r="BK23">
-        <v>0</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>956297.0844749936</v>
-      </c>
-      <c r="BO23">
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>956297.08447499364</v>
+      </c>
+      <c r="BW23">
         <v>926681.416238904</v>
       </c>
-      <c r="BP23">
-        <v>949935.6657949829</v>
+      <c r="BX23">
+        <v>949935.66579498292</v>
       </c>
     </row>
-    <row r="24" spans="1:68">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1455.53721019959</v>
+        <v>1455.5372101995899</v>
       </c>
       <c r="B24">
-        <v>1439.824611424225</v>
+        <v>1439.8246114242249</v>
       </c>
       <c r="C24">
         <v>1451.975340052835</v>
       </c>
       <c r="E24">
-        <v>1097.262612400836</v>
+        <v>1097.2626124008359</v>
       </c>
       <c r="F24">
         <v>1061.651611942804</v>
       </c>
       <c r="G24">
-        <v>1089.688055698918</v>
-      </c>
-      <c r="Q24">
-        <v>0.2829716730044741</v>
-      </c>
-      <c r="R24">
-        <v>0.3026506166014514</v>
-      </c>
-      <c r="S24">
-        <v>0.287366756195061</v>
+        <v>1089.6880556989181</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>358.27459779875403</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>378.1729994814209</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>362.2872843539169</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>0.24614595579430482</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>0.26265212893349921</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>0.24951338659837974</v>
       </c>
       <c r="Y24">
-        <v>4191250.38146875</v>
+        <v>0.28297167300447412</v>
       </c>
       <c r="Z24">
-        <v>4145154.701928504</v>
+        <v>0.30265061660145143</v>
       </c>
       <c r="AA24">
-        <v>4181349.071305578</v>
-      </c>
-      <c r="AC24">
-        <v>1186005.132424852</v>
-      </c>
-      <c r="AD24">
-        <v>1254533.626447067</v>
-      </c>
-      <c r="AE24">
+        <v>0.28736675619506102</v>
+      </c>
+      <c r="AG24">
+        <v>4191250.3814687501</v>
+      </c>
+      <c r="AH24">
+        <v>4145154.7019285038</v>
+      </c>
+      <c r="AI24">
+        <v>4181349.0713055781</v>
+      </c>
+      <c r="AK24">
+        <v>1186005.1324248521</v>
+      </c>
+      <c r="AL24">
+        <v>1254533.6264470669</v>
+      </c>
+      <c r="AM24">
         <v>1201580.719140315</v>
       </c>
-      <c r="BJ24">
+      <c r="BR24">
         <v>1518000</v>
       </c>
-      <c r="BK24">
-        <v>0</v>
-      </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BN24">
-        <v>1488440.632162358</v>
-      </c>
-      <c r="BO24">
-        <v>1442344.952622099</v>
-      </c>
-      <c r="BP24">
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
+        <v>1488440.6321623579</v>
+      </c>
+      <c r="BW24">
+        <v>1442344.9526220991</v>
+      </c>
+      <c r="BX24">
         <v>1478539.321999185</v>
       </c>
     </row>
-    <row r="25" spans="1:68">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1707.016881676626</v>
+        <v>1707.0168816766261</v>
       </c>
       <c r="B25">
-        <v>1693.538993776992</v>
+        <v>1693.5389937769919</v>
       </c>
       <c r="C25">
-        <v>1703.717687778384</v>
+        <v>1703.7176877783841</v>
       </c>
       <c r="E25">
-        <v>1283.261452349217</v>
+        <v>1283.2614523492171</v>
       </c>
       <c r="F25">
         <v>1245.460602214976</v>
@@ -2506,115 +3073,209 @@
       <c r="G25">
         <v>1278.141931278642</v>
       </c>
-      <c r="Q25">
-        <v>0.2817536667767171</v>
-      </c>
-      <c r="R25">
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>423.75542932740905</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>448.0783915620159</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>425.57575649974206</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0.24824325633569477</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>0.26458108919163137</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>0.24979241546449216</v>
+      </c>
+      <c r="Y25">
+        <v>0.28175366677671709</v>
+      </c>
+      <c r="Z25">
         <v>0.3028367582796227</v>
       </c>
-      <c r="S25">
-        <v>0.2859181479218809</v>
-      </c>
-      <c r="Y25">
-        <v>5164607.388714674</v>
-      </c>
-      <c r="Z25">
-        <v>5121869.494688723</v>
-      </c>
       <c r="AA25">
-        <v>5155427.32783495</v>
-      </c>
-      <c r="AC25">
+        <v>0.28591814792188092</v>
+      </c>
+      <c r="AG25">
+        <v>5164607.3887146739</v>
+      </c>
+      <c r="AH25">
+        <v>5121869.4946887232</v>
+      </c>
+      <c r="AI25">
+        <v>5155427.3278349498</v>
+      </c>
+      <c r="AK25">
         <v>1455147.069232485</v>
       </c>
-      <c r="AD25">
+      <c r="AL25">
         <v>1551090.354102822</v>
       </c>
-      <c r="AE25">
-        <v>1474030.23332042</v>
-      </c>
-      <c r="BJ25">
+      <c r="AM25">
+        <v>1474030.2333204199</v>
+      </c>
+      <c r="BR25">
         <v>2058000</v>
       </c>
-      <c r="BK25">
-        <v>0</v>
-      </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BN25">
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
         <v>1380016.926439387</v>
       </c>
-      <c r="BO25">
+      <c r="BW25">
         <v>1337279.032413444</v>
       </c>
-      <c r="BP25">
-        <v>1370836.865559667</v>
+      <c r="BX25">
+        <v>1370836.8655596671</v>
       </c>
     </row>
-    <row r="26" spans="1:68">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2145.509366638663</v>
+        <v>2145.5093666386629</v>
       </c>
       <c r="B26">
-        <v>2112.344105088047</v>
+        <v>2112.3441050880469</v>
       </c>
       <c r="C26">
-        <v>2137.390985675988</v>
+        <v>2137.3909856759878</v>
       </c>
       <c r="E26">
-        <v>1718.803289406531</v>
+        <v>1718.8032894065309</v>
       </c>
       <c r="F26">
-        <v>1675.686481943971</v>
+        <v>1675.6864819439711</v>
       </c>
       <c r="G26">
         <v>1715.368813431322</v>
       </c>
-      <c r="Q26">
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>426.70607723213197</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>436.65762314407584</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>422.02217224466585</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>0.19888334391224119</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>0.20671708841958542</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>0.19744734354776641</v>
+      </c>
+      <c r="Y26">
         <v>0.2234624851602344</v>
       </c>
-      <c r="R26">
-        <v>0.2334805572726993</v>
-      </c>
-      <c r="S26">
-        <v>0.2233746045664066</v>
-      </c>
-      <c r="Y26">
-        <v>6555304.039996562</v>
-      </c>
       <c r="Z26">
+        <v>0.23348055727269931</v>
+      </c>
+      <c r="AA26">
+        <v>0.22337460456640659</v>
+      </c>
+      <c r="AG26">
+        <v>6555304.0399965616</v>
+      </c>
+      <c r="AH26">
         <v>6450138.197688831</v>
       </c>
-      <c r="AA26">
-        <v>6532714.512438975</v>
-      </c>
-      <c r="AC26">
-        <v>1464864.531758556</v>
-      </c>
-      <c r="AD26">
-        <v>1505981.860882312</v>
-      </c>
-      <c r="AE26">
-        <v>1459242.520961282</v>
-      </c>
-      <c r="BJ26">
+      <c r="AI26">
+        <v>6532714.5124389753</v>
+      </c>
+      <c r="AK26">
+        <v>1464864.5317585559</v>
+      </c>
+      <c r="AL26">
+        <v>1505981.8608823121</v>
+      </c>
+      <c r="AM26">
+        <v>1459242.5209612821</v>
+      </c>
+      <c r="BR26">
         <v>1500950</v>
       </c>
-      <c r="BK26">
-        <v>0</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
-        <v>3395830.463237387</v>
-      </c>
-      <c r="BO26">
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>3395830.4632373871</v>
+      </c>
+      <c r="BW26">
         <v>3290664.620929651</v>
       </c>
-      <c r="BP26">
-        <v>3373240.935679802</v>
+      <c r="BX26">
+        <v>3373240.9356798022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="Y30">
+        <f>AVERAGE(Y3:AA26)</f>
+        <v>0.27090182833154086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <f>AVERAGE(I3:I26)</f>
+        <v>393.98520347920959</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31:O31" si="8">AVERAGE(J3:J26)</f>
+        <v>411.15744963066436</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>393.86965056060609</v>
+      </c>
+      <c r="L31" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="8"/>
+        <v>0.23490354144589223</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="8"/>
+        <v>0.24748799440408617</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="8"/>
+        <v>0.23539949278944935</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f>AVERAGE(I31:K31)</f>
+        <v>399.67076789015999</v>
+      </c>
+      <c r="M35">
+        <f>AVERAGE(M31:O31)</f>
+        <v>0.2392636762131426</v>
       </c>
     </row>
   </sheetData>
